--- a/data/trans_bre/P21_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P21_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,9</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,42</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>36,31%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>27,22%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.895076205369527</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.215220088570631</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.3631185490987426</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.3851978806112941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 14,38</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,27; 14,73</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,89; 102,81</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-47,28; 111,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.526403518175538</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.544073771820171</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.09888849736325542</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.305001094299718</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.37823308617007</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.23154428988948</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.028142490857898</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.259562330578279</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,86</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>14,66</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>18,84%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>138,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,73; 13,93</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,58; 23,92</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-25,54; 94,1</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>40,3; 362,39</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.859613036889692</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>14.46949719471263</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1884413444792263</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.280672663335512</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-27,03</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>39,61%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-73,51%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.728271484524923</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>4.526834157652545</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2553708371928743</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.1463572517026664</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,66; 25,96</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-64,89; 0,36</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-57,51; 529,33</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 10,27</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.9309256330041</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>24.13844077828908</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.9410106491467116</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>3.308502520156141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,7</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>29,51%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>31,5%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.919342647146602</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-27.01869353000738</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.3961249120984603</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.732447565340961</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 11,59</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,64; 12,92</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 71,83</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-17,45; 102,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.66251325752369</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-65.05531982461463</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.5751464182227838</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>25.96301385677184</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.5186007377942335</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>5.29331975731521</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.1477206906072344</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>5.647136722451809</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.777991623534802</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.2950959421733902</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.3877741646987406</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.083282874425077</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.946903505005065</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.0570379163919195</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1351586288221932</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.5925555767533</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>13.9407737730474</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.7183090209136367</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.112983412208756</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
